--- a/code/main/model_output/logitr/mnl_wtp_subgroup_coefs_wide.xlsx
+++ b/code/main/model_output/logitr/mnl_wtp_subgroup_coefs_wide.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xnw17/Documents/GitHub/Conjoint_Survey_25/code/main/model_output/logitr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{496D9576-CB23-E541-8BE8-B01171D32E40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F4E22A8-8EAD-3A4D-B768-2BE25CD3689E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="29880" windowHeight="13160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>parameter</t>
   </si>
@@ -122,15 +122,6 @@
     <t>Key findings:</t>
   </si>
   <si>
-    <t>Current EV owners have higher WTP for EV range, but they lower WTP for EVs with high mileage, high degradation rate, with refurbished battery</t>
-  </si>
-  <si>
-    <t>Individuals with full knowledge on EV have higher WTP for EVs with high mileage, high degradation rate, with refurbished battery</t>
-  </si>
-  <si>
-    <t>Individuals agree that refurbished EVB will minimize negative effects on natural ecosystems  have higher tolerance (less negative) for EVs with refurbished battery</t>
-  </si>
-  <si>
     <t>Suprisingly, the conservative show less negative responses to refurbished batteries and degradation.</t>
   </si>
   <si>
@@ -138,6 +129,19 @@
   </si>
   <si>
     <t>logLik</t>
+  </si>
+  <si>
+    <t>Current EV owners have higher WTP for EV range, and they are more adverse to EVs with high mileage, high degradation rate, with refurbished battery</t>
+  </si>
+  <si>
+    <t>Individuals with full knowledge on EV are less adverse to EVs with high mileage, high degradation rate, with refurbished battery</t>
+  </si>
+  <si>
+    <t>Individuals agree that refurbished EVB will minimize negative effects on natural ecosystems are less adverse to used EVs with refurbished battery</t>
+  </si>
+  <si>
+    <t>Individuals agree that refurbished EVB do NOT perform and function as original EV batteries are more adverse to pack-replaced battery, but less adverse to cell-replaced battery 
+ are less adverse to used EVs with refurbished battery</t>
   </si>
 </sst>
 </file>
@@ -200,7 +204,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -210,6 +214,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -509,7 +514,7 @@
   <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -875,7 +880,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C10" s="3">
         <v>1644</v>
@@ -916,7 +921,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C11" s="3">
         <v>-1968.4670000000001</v>
@@ -962,27 +967,29 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C16" s="6" t="s">
-        <v>31</v>
+      <c r="C16" s="7" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C17" s="6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
+      <c r="C18" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>

--- a/code/main/model_output/logitr/mnl_wtp_subgroup_coefs_wide.xlsx
+++ b/code/main/model_output/logitr/mnl_wtp_subgroup_coefs_wide.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xnw17/Documents/GitHub/Conjoint_Survey_25/code/main/model_output/logitr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F4E22A8-8EAD-3A4D-B768-2BE25CD3689E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBAB4FCD-2634-7841-A992-6486845A8B9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="29880" windowHeight="13160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="680" windowWidth="29880" windowHeight="14400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="WTP" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>parameter</t>
   </si>
@@ -120,9 +120,6 @@
   </si>
   <si>
     <t>Key findings:</t>
-  </si>
-  <si>
-    <t>Suprisingly, the conservative show less negative responses to refurbished batteries and degradation.</t>
   </si>
   <si>
     <t>obs</t>
@@ -142,6 +139,12 @@
   <si>
     <t>Individuals agree that refurbished EVB do NOT perform and function as original EV batteries are more adverse to pack-replaced battery, but less adverse to cell-replaced battery 
  are less adverse to used EVs with refurbished battery</t>
+  </si>
+  <si>
+    <t>respondent</t>
+  </si>
+  <si>
+    <t>Surprisingly, the conservative show less negative responses to refurbished batteries and degradation.</t>
   </si>
 </sst>
 </file>
@@ -511,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O22"/>
+  <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -880,7 +883,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="3">
         <v>1644</v>
@@ -921,91 +924,128 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C11" s="3">
+        <f>C10/6</f>
+        <v>274</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" ref="D11:N11" si="0">D10/6</f>
+        <v>98</v>
+      </c>
+      <c r="E11" s="3">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="F11" s="3">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="G11" s="3">
+        <f t="shared" si="0"/>
+        <v>290</v>
+      </c>
+      <c r="H11" s="3">
+        <f t="shared" si="0"/>
+        <v>125</v>
+      </c>
+      <c r="I11" s="3">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+      <c r="J11" s="3">
+        <f t="shared" si="0"/>
+        <v>192</v>
+      </c>
+      <c r="K11" s="3">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="L11" s="3">
+        <f t="shared" si="0"/>
+        <v>102</v>
+      </c>
+      <c r="M11" s="3">
+        <f t="shared" si="0"/>
+        <v>157</v>
+      </c>
+      <c r="N11" s="3">
+        <f t="shared" si="0"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="3">
         <v>-1968.4670000000001</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D12" s="3">
         <v>-722.71119999999996</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E12" s="3">
         <v>-62.080779999999997</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F12" s="3">
         <v>-484.0138</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G12" s="3">
         <v>-2136.2860000000001</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H12" s="3">
         <v>-907.42579999999998</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I12" s="3">
         <v>-597.6671</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J12" s="3">
         <v>-1340.5889999999999</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K12" s="3">
         <v>-414.78500000000003</v>
       </c>
-      <c r="L11" s="3">
+      <c r="L12" s="3">
         <v>-752.16980000000001</v>
       </c>
-      <c r="M11" s="3">
+      <c r="M12" s="3">
         <v>-1124.3430000000001</v>
       </c>
-      <c r="N11" s="3">
+      <c r="N12" s="3">
         <v>-671.19929999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C13" s="6" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C16" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C17" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C18" s="6" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C16" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="C17" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B18" s="4"/>
-      <c r="C18" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
+      <c r="C19" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
@@ -1020,26 +1060,42 @@
       <c r="O19" s="4"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B20" s="3"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B21" s="3"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B22" s="3"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B23" s="3"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C3:N3 C5:N7">
